--- a/simulation_data/two_step_algorithm/2s_error_level_14_percent_water_60.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_14_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>94.3524721508993</v>
+        <v>93.12571834024078</v>
       </c>
       <c r="D2" t="n">
-        <v>20.75232675396795</v>
+        <v>21.37484362185664</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>93.80988792589037</v>
+        <v>93.09722588149117</v>
       </c>
       <c r="D3" t="n">
-        <v>22.92658449293064</v>
+        <v>20.81818274744026</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>89.40645314214842</v>
+        <v>88.13492140506919</v>
       </c>
       <c r="D4" t="n">
-        <v>19.47199446433141</v>
+        <v>20.73710350017788</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>91.75781647567335</v>
+        <v>92.65754530799249</v>
       </c>
       <c r="D5" t="n">
-        <v>23.52175835063736</v>
+        <v>24.07645583206059</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.69106272193558</v>
+        <v>89.84505000191827</v>
       </c>
       <c r="D6" t="n">
-        <v>22.4088798370594</v>
+        <v>21.51179273998643</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>88.0052237337558</v>
+        <v>85.96551674507536</v>
       </c>
       <c r="D7" t="n">
-        <v>23.9311203609457</v>
+        <v>19.83919983772548</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>87.06569171561188</v>
+        <v>83.94674877512608</v>
       </c>
       <c r="D8" t="n">
-        <v>22.98936456128671</v>
+        <v>18.57113600333391</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>88.9865386417362</v>
+        <v>85.52281434420229</v>
       </c>
       <c r="D9" t="n">
-        <v>21.59677744114368</v>
+        <v>22.64205896521453</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>85.43497191083094</v>
+        <v>77.65815576545467</v>
       </c>
       <c r="D10" t="n">
-        <v>21.24645428832348</v>
+        <v>20.54528872269398</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>84.63256730792914</v>
+        <v>84.9869250837444</v>
       </c>
       <c r="D11" t="n">
-        <v>21.29783528806718</v>
+        <v>20.43077549546298</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.46323507521308</v>
+        <v>82.00596931359046</v>
       </c>
       <c r="D12" t="n">
-        <v>21.98554229329448</v>
+        <v>21.44440427992984</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>83.65051958050526</v>
+        <v>85.74039399067249</v>
       </c>
       <c r="D13" t="n">
-        <v>24.20369608580591</v>
+        <v>20.09645905603081</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>81.70896057411602</v>
+        <v>83.0963847986735</v>
       </c>
       <c r="D14" t="n">
-        <v>23.28283112478891</v>
+        <v>23.15451142646137</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>80.61042601920941</v>
+        <v>79.97104617589594</v>
       </c>
       <c r="D15" t="n">
-        <v>24.62555908060054</v>
+        <v>21.55640835674675</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.06458084697364</v>
+        <v>74.38887625797072</v>
       </c>
       <c r="D16" t="n">
-        <v>21.40607050052839</v>
+        <v>22.17319690458887</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>79.36211400580046</v>
+        <v>80.98668024746364</v>
       </c>
       <c r="D17" t="n">
-        <v>22.51252266414066</v>
+        <v>21.75352375848333</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.39569572118481</v>
+        <v>75.29183729603446</v>
       </c>
       <c r="D18" t="n">
-        <v>22.11333606619557</v>
+        <v>23.05410089641753</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>77.86879240476604</v>
+        <v>74.78295295271526</v>
       </c>
       <c r="D19" t="n">
-        <v>25.12179051296801</v>
+        <v>22.72669697289036</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>80.56418107611434</v>
+        <v>69.35915666554732</v>
       </c>
       <c r="D20" t="n">
-        <v>22.48260655760598</v>
+        <v>22.27464544583052</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>74.2759723921632</v>
+        <v>72.41337084390068</v>
       </c>
       <c r="D21" t="n">
-        <v>22.57450176844174</v>
+        <v>22.82372119228515</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.39486915706073</v>
+        <v>73.65226789076523</v>
       </c>
       <c r="D22" t="n">
-        <v>21.71680395983671</v>
+        <v>19.64645433846299</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>71.03279419755133</v>
+        <v>70.51034724484636</v>
       </c>
       <c r="D23" t="n">
-        <v>24.79197073882719</v>
+        <v>19.92052027429532</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>73.22952955299168</v>
+        <v>76.09186611601872</v>
       </c>
       <c r="D24" t="n">
-        <v>21.25850550721211</v>
+        <v>21.4494193044933</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>64.59608888115858</v>
+        <v>70.02764558859246</v>
       </c>
       <c r="D25" t="n">
-        <v>21.928165141057</v>
+        <v>18.79071956419565</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.69926991306832</v>
+        <v>72.20418343352121</v>
       </c>
       <c r="D26" t="n">
-        <v>21.62529038980027</v>
+        <v>24.02603860778347</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.28304959916596</v>
+        <v>62.60091199235417</v>
       </c>
       <c r="D27" t="n">
-        <v>21.01048751375756</v>
+        <v>21.34971348047007</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>61.66581827183779</v>
+        <v>64.34119100337975</v>
       </c>
       <c r="D28" t="n">
-        <v>23.05048488113313</v>
+        <v>22.16117333873241</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>67.62777220792246</v>
+        <v>63.3469326102845</v>
       </c>
       <c r="D29" t="n">
-        <v>20.11101659907688</v>
+        <v>20.68331249495143</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>65.25907931917521</v>
+        <v>58.77019587331756</v>
       </c>
       <c r="D30" t="n">
-        <v>22.52100543355057</v>
+        <v>20.67880758265609</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.04221037991345</v>
+        <v>59.9318617562578</v>
       </c>
       <c r="D31" t="n">
-        <v>20.95134172871025</v>
+        <v>23.58648383615771</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>62.08721895362392</v>
+        <v>60.42270468462033</v>
       </c>
       <c r="D32" t="n">
-        <v>24.28179957703614</v>
+        <v>19.50737060605431</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>57.99220716247293</v>
+        <v>60.69888714064057</v>
       </c>
       <c r="D33" t="n">
-        <v>23.23090641227871</v>
+        <v>22.28605798803897</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.39060454172526</v>
+        <v>56.73899548264949</v>
       </c>
       <c r="D34" t="n">
-        <v>22.67794885675668</v>
+        <v>22.78379466486833</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>54.24381248933371</v>
+        <v>61.60359011718054</v>
       </c>
       <c r="D35" t="n">
-        <v>18.88564709873929</v>
+        <v>23.75880878432548</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.87933968179861</v>
+        <v>56.99832141277736</v>
       </c>
       <c r="D36" t="n">
-        <v>23.65738514809158</v>
+        <v>19.83354358357784</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>53.69999505576754</v>
+        <v>52.99546572066206</v>
       </c>
       <c r="D37" t="n">
-        <v>19.57353764383309</v>
+        <v>23.03354388634439</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>52.35573065056734</v>
+        <v>54.21519719385163</v>
       </c>
       <c r="D38" t="n">
-        <v>19.9203682923247</v>
+        <v>20.97733473407774</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.68841207032688</v>
+        <v>50.47192666887382</v>
       </c>
       <c r="D39" t="n">
-        <v>23.82237147233909</v>
+        <v>21.84799928956314</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>54.4102924276749</v>
+        <v>52.58549324594527</v>
       </c>
       <c r="D40" t="n">
-        <v>22.00161639316339</v>
+        <v>21.74577516806556</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.55931340277637</v>
+        <v>47.93000456413343</v>
       </c>
       <c r="D41" t="n">
-        <v>23.25267649763372</v>
+        <v>20.36215245299283</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.91483527292621</v>
+        <v>50.62198724085365</v>
       </c>
       <c r="D42" t="n">
-        <v>25.161261237603</v>
+        <v>20.44579021690156</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>51.72045468039095</v>
+        <v>47.30575742578523</v>
       </c>
       <c r="D43" t="n">
-        <v>22.51860587503959</v>
+        <v>21.492796245653</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>45.62689928374932</v>
+        <v>51.25520803356677</v>
       </c>
       <c r="D44" t="n">
-        <v>21.77084061006481</v>
+        <v>18.33943023467841</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>50.98793361588336</v>
+        <v>47.78884242808022</v>
       </c>
       <c r="D45" t="n">
-        <v>21.8045082413448</v>
+        <v>21.08982521454308</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>42.75688359686055</v>
+        <v>44.8751286704734</v>
       </c>
       <c r="D46" t="n">
-        <v>22.06687023834509</v>
+        <v>22.91570354653929</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>42.73254680103712</v>
+        <v>44.41899552714527</v>
       </c>
       <c r="D47" t="n">
-        <v>18.20760999741892</v>
+        <v>21.69373515069667</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>45.86734965821501</v>
+        <v>42.01260284320966</v>
       </c>
       <c r="D48" t="n">
-        <v>22.8463552638716</v>
+        <v>21.08033396112875</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.14568280890945</v>
+        <v>46.44698411337988</v>
       </c>
       <c r="D49" t="n">
-        <v>18.47845227636155</v>
+        <v>20.2629036495586</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>40.9656072786175</v>
+        <v>43.82264756715468</v>
       </c>
       <c r="D50" t="n">
-        <v>19.03906692585687</v>
+        <v>18.83641947173649</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>42.26628500010777</v>
+        <v>41.7080577733883</v>
       </c>
       <c r="D51" t="n">
-        <v>20.7039988488501</v>
+        <v>19.70193408606566</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>38.20750751980776</v>
+        <v>39.82499670990148</v>
       </c>
       <c r="D52" t="n">
-        <v>22.06664001961096</v>
+        <v>19.88179580841976</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.55956690916192</v>
+        <v>36.6054346673298</v>
       </c>
       <c r="D53" t="n">
-        <v>21.68096093142513</v>
+        <v>21.8069291752182</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.2331186161456</v>
+        <v>36.72319115377724</v>
       </c>
       <c r="D54" t="n">
-        <v>20.65564107016774</v>
+        <v>21.54481055487939</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.05153214723017</v>
+        <v>40.98069310829354</v>
       </c>
       <c r="D55" t="n">
-        <v>23.40328656893342</v>
+        <v>21.84923296930188</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>31.32711803169547</v>
+        <v>38.56555834035638</v>
       </c>
       <c r="D56" t="n">
-        <v>19.7652494720728</v>
+        <v>20.84500801855178</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>31.07677537468269</v>
+        <v>33.35789791906534</v>
       </c>
       <c r="D57" t="n">
-        <v>19.82238365234419</v>
+        <v>21.71696613567882</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>36.76407022573919</v>
+        <v>32.5338915065604</v>
       </c>
       <c r="D58" t="n">
-        <v>20.77824807483442</v>
+        <v>19.43811647093837</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>36.090160405744</v>
+        <v>33.07495205703911</v>
       </c>
       <c r="D59" t="n">
-        <v>20.55623262839604</v>
+        <v>23.85487334747333</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.78345728637359</v>
+        <v>31.99282465227565</v>
       </c>
       <c r="D60" t="n">
-        <v>23.07081095097945</v>
+        <v>21.5310330685488</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>34.17293149772688</v>
+        <v>32.35413296221694</v>
       </c>
       <c r="D61" t="n">
-        <v>23.87952524981401</v>
+        <v>23.69401962386598</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>32.27283740672487</v>
+        <v>28.86177989388908</v>
       </c>
       <c r="D62" t="n">
-        <v>20.92795977783502</v>
+        <v>18.40118305893887</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>26.44209517637455</v>
+        <v>26.67918643920298</v>
       </c>
       <c r="D63" t="n">
-        <v>21.17696583940471</v>
+        <v>22.21177119267628</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>29.80177780648359</v>
+        <v>29.22020560411418</v>
       </c>
       <c r="D64" t="n">
-        <v>21.87568555580421</v>
+        <v>21.61892828020557</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>30.6579534989774</v>
+        <v>28.24536943099088</v>
       </c>
       <c r="D65" t="n">
-        <v>20.79418047759346</v>
+        <v>20.18172675145049</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.30701499814401</v>
+        <v>24.34747415501409</v>
       </c>
       <c r="D66" t="n">
-        <v>21.9258552160836</v>
+        <v>22.90483727744377</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.29323194814768</v>
+        <v>25.94739402004971</v>
       </c>
       <c r="D67" t="n">
-        <v>20.62149594116515</v>
+        <v>20.56042154702125</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>27.33946788623444</v>
+        <v>19.92906928536153</v>
       </c>
       <c r="D68" t="n">
-        <v>21.68434965826205</v>
+        <v>21.16925655300161</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.62539252269693</v>
+        <v>18.4234914511541</v>
       </c>
       <c r="D69" t="n">
-        <v>20.31722190818491</v>
+        <v>22.90170842001072</v>
       </c>
     </row>
   </sheetData>
